--- a/events.xlsx
+++ b/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\PycharmProjects\Eksmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA0323-E0AF-48C4-8229-BAA8EED2C0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED02F59-B426-4E29-8D0C-594E24E2BA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7545" yWindow="495" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>text</t>
   </si>
@@ -28,169 +28,178 @@
     <t>sound</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>time_sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Джонни открывал глаза, а только слушал, что происходит</t>
-  </si>
-  <si>
-    <t>eyes_opening.mp3</t>
-  </si>
-  <si>
-    <t>background_noise.wav</t>
+    <t>start_sec</t>
+  </si>
+  <si>
+    <t>duration_sec</t>
+  </si>
+  <si>
+    <t>end_sec</t>
+  </si>
+  <si>
+    <t>start_ms</t>
+  </si>
+  <si>
+    <t>duration_ms</t>
+  </si>
+  <si>
+    <t>volume_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Джо не открывал глаза, а только слушал, что происходит</t>
+  </si>
+  <si>
+    <t>door_creak.wav</t>
+  </si>
+  <si>
+    <t>person_talking.wav</t>
   </si>
   <si>
     <t xml:space="preserve"> вокруг, а вокруг был шум, который нарастал с каждой</t>
   </si>
   <si>
-    <t>building_noise.wav</t>
-  </si>
-  <si>
-    <t>amplifying_sound.wav</t>
+    <t>ambiance.wav</t>
+  </si>
+  <si>
+    <t>buildup.wav</t>
   </si>
   <si>
     <t xml:space="preserve"> секундой.</t>
   </si>
   <si>
-    <t>dot.mp3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Шум, этот состоял из многих звуков.</t>
-  </si>
-  <si>
-    <t>shum.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Громкие разговоры людей, с плески морских волны,</t>
+    <t>clock_ticking.wav</t>
+  </si>
+  <si>
+    <t>echo_reverb.wav</t>
+  </si>
+  <si>
+    <t>door_creaking.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Шум — этот состоял из многих звуков.</t>
+  </si>
+  <si>
+    <t>rumbles.wav</t>
+  </si>
+  <si>
+    <t>whispers.wav</t>
+  </si>
+  <si>
+    <t>hums.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
+  </si>
+  <si>
+    <t>conversations.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
+  </si>
+  <si>
+    <t>machine_hum.wav</t>
+  </si>
+  <si>
+    <t>footsteps.wav</t>
+  </si>
+  <si>
+    <t>whistle.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ветра, скрип досок и многих-многих других.</t>
+  </si>
+  <si>
+    <t>wind.wav</t>
+  </si>
+  <si>
+    <t>random_noises.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Звук от шагов человека, который их нес, тоже изменился.</t>
+  </si>
+  <si>
+    <t>echo.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сначала они были почти не слышные, чуть-чуть шаркающие.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
+  </si>
+  <si>
+    <t>step.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> стали очень громкие, так еще и каждый шаг сопровождался</t>
+  </si>
+  <si>
+    <t>loud_step.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> неприятным железным эхом.</t>
+  </si>
+  <si>
+    <t>reverb.wav</t>
+  </si>
+  <si>
+    <t>metallic_echo.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ящик поставили, и шаги начали отдаляться.</t>
+  </si>
+  <si>
+    <t>door_close.wav</t>
+  </si>
+  <si>
+    <t>footsteps_distant_start.wav</t>
+  </si>
+  <si>
+    <t>footsteps_distant_walk.wav</t>
+  </si>
+  <si>
+    <t>footsteps_distant_stop.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пока совсем не стихли.</t>
+  </si>
+  <si>
+    <t>birds.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Больше к ним никто не подходил.</t>
+  </si>
+  <si>
+    <t>creep.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И, судя по звукам, рядом ничего не происходило.</t>
+  </si>
+  <si>
+    <t>silence.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Джо, подождав еще несколько минут, решил открыть глаза.</t>
+  </si>
+  <si>
+    <t>opening_eyes.wav</t>
+  </si>
+  <si>
+    <t>caw.wav</t>
+  </si>
+  <si>
+    <t>creaking_boards.wav</t>
   </si>
   <si>
     <t>ocean_waves.wav</t>
   </si>
   <si>
-    <t>conversations.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> скрежет железных механизмов, крик и чайкаек, топот,</t>
-  </si>
-  <si>
     <t>scritch.wav</t>
   </si>
   <si>
-    <t>caw.wav</t>
-  </si>
-  <si>
-    <t>footstep.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ног, свист ветра, скрип досок и многих многих других.</t>
-  </si>
-  <si>
-    <t>footsteps.wav</t>
+    <t>whisper.wav</t>
   </si>
   <si>
     <t>wind_whistle.wav</t>
-  </si>
-  <si>
-    <t>creaking_boards.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Звуков шагов человека, который их нёс тоже изменился.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Сначала они были, почти не слышные, чуть-чуть шаркоющее.</t>
-  </si>
-  <si>
-    <t>whisper.wav</t>
-  </si>
-  <si>
-    <t>hollow_echo.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ви, дима, он шёл по земле, а теперь мало того, что стали</t>
-  </si>
-  <si>
-    <t>step_sound.wav</t>
-  </si>
-  <si>
-    <t>ground_impact.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> очень громкие.</t>
-  </si>
-  <si>
-    <t>loud_impact.wav</t>
-  </si>
-  <si>
-    <t>sharp_hit.wav</t>
-  </si>
-  <si>
-    <t>sonar_ping.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Так ещё и каждый, шаг сопровождался неприятным</t>
-  </si>
-  <si>
-    <t>creak.wav</t>
-  </si>
-  <si>
-    <t>scratch.wav</t>
-  </si>
-  <si>
-    <t>rumble.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> железным, эхом, ящик поставили, и шаги начали отдаляться.</t>
-  </si>
-  <si>
-    <t>metallic_solid_tone.wav</t>
-  </si>
-  <si>
-    <t>echo_reverb.wav</t>
-  </si>
-  <si>
-    <t>footsteps_fadeout.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Пока совсем не стихли, больше к ним.</t>
-  </si>
-  <si>
-    <t>whoosh.wav</t>
-  </si>
-  <si>
-    <t>swoosh.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Никто не подходил.</t>
-  </si>
-  <si>
-    <t>silence.wav</t>
-  </si>
-  <si>
-    <t>soft_talk.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> И, судя по звокам, рядом, ничего не происходило.</t>
-  </si>
-  <si>
-    <t>echoes.wav</t>
-  </si>
-  <si>
-    <t>noises_of_emptiness.wav</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Джо, подождаф ещё, несколько минут, решил открыть глаза.</t>
-  </si>
-  <si>
-    <t>door_opening.caf</t>
-  </si>
-  <si>
-    <t>breathing_loop.wav</t>
-  </si>
-  <si>
-    <t>opening_blur_effect.mp3</t>
   </si>
 </sst>
 </file>
@@ -553,19 +562,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,565 +587,1031 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>1500</v>
+      </c>
+      <c r="G3">
+        <v>3000</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>4840</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>4840</v>
+        <v>1.5</v>
       </c>
       <c r="D5">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3.5</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5">
+        <v>2000</v>
+      </c>
+      <c r="H5">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>9280</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>9.2799999999999994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>1.7</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>10480</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>10.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2000</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>14400</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <v>4000</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>14400</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2.1</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
+      <c r="F10">
+        <v>1500</v>
+      </c>
+      <c r="G10">
+        <v>1000</v>
+      </c>
+      <c r="H10">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="C10">
-        <v>18960</v>
-      </c>
-      <c r="D10">
-        <v>18.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>18960</v>
+        <v>2.5</v>
       </c>
       <c r="D11">
-        <v>18.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2500</v>
+      </c>
+      <c r="G11">
+        <v>1500</v>
+      </c>
+      <c r="H11">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>18960</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>18.96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2500</v>
+      </c>
+      <c r="H12">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>1.2</v>
+      </c>
+      <c r="D13">
+        <v>1.8</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1200</v>
+      </c>
+      <c r="G13">
+        <v>1800</v>
+      </c>
+      <c r="H13">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
-        <v>24240</v>
-      </c>
-      <c r="D13">
-        <v>24.24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>24240</v>
+        <v>2.5</v>
       </c>
       <c r="D14">
-        <v>24.24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>3.2</v>
+      </c>
+      <c r="F14">
+        <v>2500</v>
+      </c>
+      <c r="G14">
+        <v>700</v>
+      </c>
+      <c r="H14">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1500</v>
+      </c>
+      <c r="H15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="C15">
-        <v>24240</v>
-      </c>
-      <c r="D15">
-        <v>24.24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C16">
-        <v>29800</v>
+        <v>1.2</v>
       </c>
       <c r="D16">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1200</v>
+      </c>
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="H16">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C17">
-        <v>36120</v>
+        <v>2.5</v>
       </c>
       <c r="D17">
-        <v>36.119999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2</v>
+      </c>
+      <c r="E17">
+        <v>3.7</v>
+      </c>
+      <c r="F17">
+        <v>2500</v>
+      </c>
+      <c r="G17">
+        <v>1200</v>
+      </c>
+      <c r="H17">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18">
-        <v>36120</v>
+        <v>3.7</v>
       </c>
       <c r="D18">
-        <v>36.119999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>4.2</v>
+      </c>
+      <c r="F18">
+        <v>3700</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>2.5</v>
+      </c>
+      <c r="E19">
+        <v>2.5</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2500</v>
+      </c>
+      <c r="H19">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20">
+        <v>1.8</v>
+      </c>
+      <c r="D20">
+        <v>1.3</v>
+      </c>
+      <c r="E20">
+        <v>3.1</v>
+      </c>
+      <c r="F20">
+        <v>1800</v>
+      </c>
+      <c r="G20">
+        <v>1300</v>
+      </c>
+      <c r="H20">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>4.2</v>
+      </c>
+      <c r="E21">
+        <v>4.7</v>
+      </c>
+      <c r="F21">
+        <v>500</v>
+      </c>
+      <c r="G21">
+        <v>4200</v>
+      </c>
+      <c r="H21">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>36120</v>
-      </c>
-      <c r="D19">
-        <v>36.119999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20">
-        <v>41600</v>
-      </c>
-      <c r="D20">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>41600</v>
-      </c>
-      <c r="D21">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="C22">
-        <v>41600</v>
-      </c>
-      <c r="D22">
-        <v>41.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>2000</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="C23">
-        <v>47360</v>
-      </c>
-      <c r="D23">
-        <v>47.36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="E24">
+        <v>1.5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1500</v>
+      </c>
+      <c r="H24">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>34</v>
-      </c>
-      <c r="C24">
-        <v>47360</v>
-      </c>
-      <c r="D24">
-        <v>47.36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25">
-        <v>47360</v>
+        <v>1.2</v>
       </c>
       <c r="D25">
-        <v>47.36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="E25">
+        <v>1.5</v>
+      </c>
+      <c r="F25">
+        <v>1200</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>48840</v>
+        <v>1.5</v>
       </c>
       <c r="D26">
-        <v>48.84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="E26">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F26">
+        <v>1500</v>
+      </c>
+      <c r="G26">
+        <v>800</v>
+      </c>
+      <c r="H26">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>48840</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>48.84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.7</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
       <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>1.5</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3.5</v>
+      </c>
+      <c r="F28">
+        <v>1500</v>
+      </c>
+      <c r="G28">
+        <v>2000</v>
+      </c>
+      <c r="H28">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="C28">
-        <v>48840</v>
-      </c>
-      <c r="D28">
-        <v>48.84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2000</v>
+      </c>
+      <c r="H29">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30">
+        <v>1000</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="C29">
-        <v>52960</v>
-      </c>
-      <c r="D29">
-        <v>52.96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>42</v>
       </c>
-      <c r="C30">
-        <v>52960</v>
-      </c>
-      <c r="D30">
-        <v>52.96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
         <v>43</v>
       </c>
-      <c r="C31">
-        <v>52960</v>
-      </c>
-      <c r="D31">
-        <v>52.96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32">
+        <v>2.5</v>
+      </c>
+      <c r="D32">
+        <v>1.5</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>2500</v>
+      </c>
+      <c r="G32">
+        <v>1500</v>
+      </c>
+      <c r="H32">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
         <v>44</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>4000</v>
+      </c>
+      <c r="G33">
+        <v>3000</v>
+      </c>
+      <c r="H33">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
         <v>45</v>
       </c>
-      <c r="C32">
-        <v>59080</v>
-      </c>
-      <c r="D32">
-        <v>59.08</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C34">
+        <v>7.5</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>8.5</v>
+      </c>
+      <c r="F34">
+        <v>7500</v>
+      </c>
+      <c r="G34">
+        <v>1000</v>
+      </c>
+      <c r="H34">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="C33">
-        <v>59080</v>
-      </c>
-      <c r="D33">
-        <v>59.08</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1000</v>
+      </c>
+      <c r="H35">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36">
+        <v>2.5</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>1500</v>
+      </c>
+      <c r="G36">
+        <v>2500</v>
+      </c>
+      <c r="H36">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="C34">
-        <v>62680</v>
-      </c>
-      <c r="D34">
-        <v>62.68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C35">
-        <v>62680</v>
-      </c>
-      <c r="D35">
-        <v>62.68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C37">
+        <v>1.3</v>
+      </c>
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+      <c r="E37">
+        <v>1.5</v>
+      </c>
+      <c r="F37">
+        <v>1300</v>
+      </c>
+      <c r="G37">
+        <v>200</v>
+      </c>
+      <c r="H37">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>1.5</v>
+      </c>
+      <c r="D38">
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F38">
+        <v>1500</v>
+      </c>
+      <c r="G38">
+        <v>800</v>
+      </c>
+      <c r="H38">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>50</v>
       </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36">
-        <v>64239</v>
-      </c>
-      <c r="D36">
-        <v>64.239000000000004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>51</v>
       </c>
-      <c r="C37">
-        <v>64239</v>
-      </c>
-      <c r="D37">
-        <v>64.239000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>5000</v>
+      </c>
+      <c r="H39">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="C38">
-        <v>64239</v>
-      </c>
-      <c r="D38">
-        <v>64.239000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39">
-        <v>69480</v>
-      </c>
-      <c r="D39">
-        <v>69.48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
-      </c>
       <c r="C40">
-        <v>69480</v>
+        <v>1.5</v>
       </c>
       <c r="D40">
-        <v>69.48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41">
-        <v>69480</v>
-      </c>
-      <c r="D41">
-        <v>69.48</v>
+        <v>0.2</v>
+      </c>
+      <c r="E40">
+        <v>1.7</v>
+      </c>
+      <c r="F40">
+        <v>1500</v>
+      </c>
+      <c r="G40">
+        <v>200</v>
+      </c>
+      <c r="H40">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>volume_db</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pan</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>background_noise</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -483,7 +493,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>whisper.wav</t>
+          <t>footsteps.wav</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -502,67 +512,87 @@
         <v>4820</v>
       </c>
       <c r="H2" t="n">
-        <v>-5</v>
+        <v>-6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>wind.wav</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> вокруг, а вокруг был шум, который нарастал с каждой</t>
+          <t xml:space="preserve"> Джо не открывал глаза, а только слушал, что происходит</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ocean_waves.wav</t>
+          <t>whisper.wav</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.82</v>
       </c>
-      <c r="D3" t="n">
-        <v>4.44</v>
-      </c>
       <c r="E3" t="n">
-        <v>9.26</v>
+        <v>4.82</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>4820</v>
       </c>
-      <c r="G3" t="n">
-        <v>4439</v>
-      </c>
       <c r="H3" t="n">
-        <v>-5</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> секундой.</t>
+          <t xml:space="preserve"> вокруг, а вокруг был шум, который нарастал с каждой</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ocean_waves.wav</t>
+          <t>ambient_noise_increase.wav</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="E4" t="n">
         <v>9.26</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.26</v>
-      </c>
       <c r="F4" t="n">
-        <v>9260</v>
+        <v>4820</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>4439</v>
       </c>
       <c r="H4" t="n">
         <v>-5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ambient_noise.wav</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -573,7 +603,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>caw.wav</t>
+          <t>ambience.wav</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -592,8 +622,12 @@
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>-5</v>
-      </c>
+        <v>-6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -603,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ocean_waves.wav</t>
+          <t>mix.wav</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -624,156 +658,188 @@
       <c r="H6" t="n">
         <v>-5</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>mix.wav</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Шум — этот состоял из многих звуков.</t>
+          <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>creaking_boards.wav</t>
+          <t>conversations_loud.wav</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.26</v>
+        <v>14.36</v>
       </c>
       <c r="D7" t="n">
-        <v>4.1</v>
+        <v>5.120000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>14.36</v>
+        <v>19.48</v>
       </c>
       <c r="F7" t="n">
-        <v>10260</v>
+        <v>14360</v>
       </c>
       <c r="G7" t="n">
-        <v>4100</v>
+        <v>5120</v>
       </c>
       <c r="H7" t="n">
         <v>-5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ocean_waves.wav</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Шум — этот состоял из многих звуков.</t>
+          <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>seagulls_screech.wav</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.26</v>
+        <v>14.36</v>
       </c>
       <c r="D8" t="n">
-        <v>4.1</v>
+        <v>5.120000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>14.36</v>
+        <v>19.48</v>
       </c>
       <c r="F8" t="n">
-        <v>10260</v>
+        <v>14360</v>
       </c>
       <c r="G8" t="n">
-        <v>4100</v>
+        <v>5120</v>
       </c>
       <c r="H8" t="n">
-        <v>-5</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
+          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>conversations.wav</t>
+          <t>metal_mechanisms.wav</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14.36</v>
+        <v>19.48</v>
       </c>
       <c r="D9" t="n">
-        <v>5.120000000000001</v>
+        <v>6.080000000000002</v>
       </c>
       <c r="E9" t="n">
-        <v>19.48</v>
+        <v>25.56</v>
       </c>
       <c r="F9" t="n">
-        <v>14360</v>
+        <v>19480</v>
       </c>
       <c r="G9" t="n">
-        <v>5120</v>
+        <v>6080</v>
       </c>
       <c r="H9" t="n">
         <v>-5</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
+          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ocean_waves.wav</t>
+          <t>seagulls.wav</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.36</v>
+        <v>19.48</v>
       </c>
       <c r="D10" t="n">
-        <v>5.120000000000001</v>
+        <v>6.080000000000002</v>
       </c>
       <c r="E10" t="n">
-        <v>19.48</v>
+        <v>25.56</v>
       </c>
       <c r="F10" t="n">
-        <v>14360</v>
+        <v>19480</v>
       </c>
       <c r="G10" t="n">
-        <v>5120</v>
+        <v>6080</v>
       </c>
       <c r="H10" t="n">
         <v>-5</v>
       </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
+          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>scritch.wav</t>
+          <t>footsteps.wav</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14.36</v>
+        <v>19.48</v>
       </c>
       <c r="D11" t="n">
-        <v>5.120000000000001</v>
+        <v>6.080000000000002</v>
       </c>
       <c r="E11" t="n">
-        <v>19.48</v>
+        <v>25.56</v>
       </c>
       <c r="F11" t="n">
-        <v>14360</v>
+        <v>19480</v>
       </c>
       <c r="G11" t="n">
-        <v>5120</v>
+        <v>6080</v>
       </c>
       <c r="H11" t="n">
-        <v>-5</v>
-      </c>
+        <v>-3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -783,7 +849,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>caw.wav</t>
+          <t>wind_whistle.wav</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -802,247 +868,299 @@
         <v>6080</v>
       </c>
       <c r="H12" t="n">
-        <v>-5</v>
-      </c>
+        <v>-4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
+          <t xml:space="preserve"> ветра, скрип досок и многих-многих других.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>wind_and_wooden_creaks.wav</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19.48</v>
+        <v>25.56</v>
       </c>
       <c r="D13" t="n">
-        <v>6.080000000000002</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>25.56</v>
+        <v>29.76</v>
       </c>
       <c r="F13" t="n">
-        <v>19480</v>
+        <v>25560</v>
       </c>
       <c r="G13" t="n">
-        <v>6080</v>
+        <v>4199</v>
       </c>
       <c r="H13" t="n">
         <v>-5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>wind.wav</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
+          <t xml:space="preserve"> Звук от шагов человека, который их нес, тоже изменился.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wind_whistle.wav</t>
+          <t>step_changed.wav</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19.48</v>
+        <v>29.84</v>
       </c>
       <c r="D14" t="n">
-        <v>6.080000000000002</v>
+        <v>6.120000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>25.56</v>
+        <v>35.96</v>
       </c>
       <c r="F14" t="n">
-        <v>19480</v>
+        <v>29840</v>
       </c>
       <c r="G14" t="n">
-        <v>6080</v>
+        <v>6120</v>
       </c>
       <c r="H14" t="n">
         <v>-5</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ветра, скрип досок и многих-многих других.</t>
+          <t xml:space="preserve"> Сначала они были почти не слышные, чуть-чуть шаркающие.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>wind_whistle.wav</t>
+          <t>whispers.wav</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25.56</v>
+        <v>35.96</v>
       </c>
       <c r="D15" t="n">
-        <v>4.199999999999999</v>
+        <v>5.32</v>
       </c>
       <c r="E15" t="n">
-        <v>29.76</v>
+        <v>41.28</v>
       </c>
       <c r="F15" t="n">
-        <v>25560</v>
+        <v>35960</v>
       </c>
       <c r="G15" t="n">
-        <v>4199</v>
+        <v>5320</v>
       </c>
       <c r="H15" t="n">
         <v>-5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ocean_waves.wav</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ветра, скрип досок и многих-многих других.</t>
+          <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>creaking_boards.wav</t>
+          <t>footsteps.wav</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25.56</v>
+        <v>41.28</v>
       </c>
       <c r="D16" t="n">
-        <v>4.199999999999999</v>
+        <v>5.640000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>29.76</v>
+        <v>46.92</v>
       </c>
       <c r="F16" t="n">
-        <v>25560</v>
+        <v>41280</v>
       </c>
       <c r="G16" t="n">
-        <v>4199</v>
+        <v>5640</v>
       </c>
       <c r="H16" t="n">
         <v>-5</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Звук от шагов человека, который их нес, тоже изменился.</t>
+          <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>whisper.wav</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29.84</v>
+        <v>41.28</v>
       </c>
       <c r="D17" t="n">
-        <v>6.120000000000001</v>
+        <v>5.640000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>35.96</v>
+        <v>46.92</v>
       </c>
       <c r="F17" t="n">
-        <v>29840</v>
+        <v>41280</v>
       </c>
       <c r="G17" t="n">
-        <v>6120</v>
+        <v>5640</v>
       </c>
       <c r="H17" t="n">
-        <v>-5</v>
+        <v>-10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>wind.wav</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Сначала они были почти не слышные, чуть-чуть шаркающие.</t>
+          <t xml:space="preserve"> стали очень громкие, так еще и каждый шаг сопровождался</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>loud_steps.wav</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35.96</v>
+        <v>46.92</v>
       </c>
       <c r="D18" t="n">
-        <v>5.32</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>41.28</v>
+        <v>52.02</v>
       </c>
       <c r="F18" t="n">
-        <v>35960</v>
+        <v>46920</v>
       </c>
       <c r="G18" t="n">
-        <v>5320</v>
+        <v>5100</v>
       </c>
       <c r="H18" t="n">
         <v>-5</v>
       </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
+          <t xml:space="preserve"> неприятным железным эхом.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>metal_echo.wav</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>41.28</v>
+        <v>52.02</v>
       </c>
       <c r="D19" t="n">
-        <v>5.640000000000001</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>46.92</v>
+        <v>54.92</v>
       </c>
       <c r="F19" t="n">
-        <v>41280</v>
+        <v>52020</v>
       </c>
       <c r="G19" t="n">
-        <v>5640</v>
+        <v>2899</v>
       </c>
       <c r="H19" t="n">
         <v>-5</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> неприятным железным эхом.</t>
+          <t xml:space="preserve"> Ящик поставили, и шаги начали отдаляться.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>creaking_boards.wav</t>
+          <t>footsteps_fading.wav</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>52.02</v>
+        <v>54.92</v>
       </c>
       <c r="D20" t="n">
-        <v>2.899999999999999</v>
+        <v>4.159999999999997</v>
       </c>
       <c r="E20" t="n">
-        <v>54.92</v>
+        <v>59.08</v>
       </c>
       <c r="F20" t="n">
-        <v>52020</v>
+        <v>54920</v>
       </c>
       <c r="G20" t="n">
-        <v>2899</v>
+        <v>4159</v>
       </c>
       <c r="H20" t="n">
         <v>-5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1053,7 +1171,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>box_placed.wav</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1072,7 +1190,15 @@
         <v>4159</v>
       </c>
       <c r="H21" t="n">
-        <v>-5</v>
+        <v>-3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1083,7 +1209,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ocean_waves.wav</t>
+          <t>ambience_quiet.wav</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1104,95 +1230,165 @@
       <c r="H22" t="n">
         <v>-5</v>
       </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>silence.wav</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Больше к ним никто не подходил.</t>
+          <t xml:space="preserve"> Пока совсем не стихли.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>whisper.wav</t>
+          <t>wind.wav</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>59.12</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
         <v>61.12</v>
       </c>
-      <c r="D23" t="n">
-        <v>3.080000000000005</v>
-      </c>
-      <c r="E23" t="n">
-        <v>64.2</v>
-      </c>
       <c r="F23" t="n">
-        <v>61120</v>
+        <v>59120</v>
       </c>
       <c r="G23" t="n">
-        <v>3080</v>
+        <v>2000</v>
       </c>
       <c r="H23" t="n">
-        <v>-5</v>
+        <v>-2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ambience_quiet.wav</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> И, судя по звукам, рядом ничего не происходило.</t>
+          <t xml:space="preserve"> Больше к ним никто не подходил.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>whisper.wav</t>
+          <t>creaking_isolation.wav</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.080000000000005</v>
+      </c>
+      <c r="E24" t="n">
         <v>64.2</v>
       </c>
-      <c r="D24" t="n">
-        <v>5.280000000000001</v>
-      </c>
-      <c r="E24" t="n">
-        <v>69.48</v>
-      </c>
       <c r="F24" t="n">
-        <v>64200</v>
+        <v>61120</v>
       </c>
       <c r="G24" t="n">
-        <v>5280</v>
+        <v>3080</v>
       </c>
       <c r="H24" t="n">
         <v>-5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t xml:space="preserve"> И, судя по звукам, рядом ничего не происходило.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ambient_silence.wav</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.280000000000001</v>
+      </c>
+      <c r="E25" t="n">
+        <v>69.48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>64200</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5280</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Джо, подождав еще несколько минут, решил открыть глаза.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>whisper.wav</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>opening_eyes.wav</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>69.48</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>5.599999999999994</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E26" t="n">
         <v>75.08</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F26" t="n">
         <v>69480</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G26" t="n">
         <v>5599</v>
       </c>
-      <c r="H25" t="n">
-        <v>-5</v>
+      <c r="H26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/events.xlsx
+++ b/events.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
         <v>4820</v>
       </c>
       <c r="H2" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="I2" t="n">
         <v>0.5</v>
@@ -526,31 +526,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Джо не открывал глаза, а только слушал, что происходит</t>
+          <t xml:space="preserve"> вокруг, а вокруг был шум, который нарастал с каждой</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>whisper.wav</t>
+          <t>background_noise_growing.wav</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.82</v>
       </c>
       <c r="D3" t="n">
-        <v>4.82</v>
+        <v>4.44</v>
       </c>
       <c r="E3" t="n">
-        <v>4.82</v>
+        <v>9.26</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4820</v>
       </c>
       <c r="G3" t="n">
-        <v>4820</v>
+        <v>4439</v>
       </c>
       <c r="H3" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -560,28 +560,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> вокруг, а вокруг был шум, который нарастал с каждой</t>
+          <t xml:space="preserve"> секундой.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ambient_noise_increase.wav</t>
+          <t>ocean_waves.wav</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.82</v>
+        <v>9.26</v>
       </c>
       <c r="D4" t="n">
-        <v>4.44</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>9.26</v>
+        <v>10.26</v>
       </c>
       <c r="F4" t="n">
-        <v>4820</v>
+        <v>9260</v>
       </c>
       <c r="G4" t="n">
-        <v>4439</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
         <v>-5</v>
@@ -591,69 +591,69 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ambient_noise.wav</t>
+          <t>ocean_waves.wav</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> секундой.</t>
+          <t xml:space="preserve"> Шум — этот состоял из многих звуков.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ambience.wav</t>
+          <t>multiple_sounds.wav</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.26</v>
+        <v>10.26</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="E5" t="n">
-        <v>10.26</v>
+        <v>14.36</v>
       </c>
       <c r="F5" t="n">
-        <v>9260</v>
+        <v>10260</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4100</v>
       </c>
       <c r="H5" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Шум — этот состоял из многих звуков.</t>
+          <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mix.wav</t>
+          <t>conversations_loud.wav</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.26</v>
+        <v>14.36</v>
       </c>
       <c r="D6" t="n">
-        <v>4.1</v>
+        <v>5.120000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>14.36</v>
+        <v>19.48</v>
       </c>
       <c r="F6" t="n">
-        <v>10260</v>
+        <v>14360</v>
       </c>
       <c r="G6" t="n">
-        <v>4100</v>
+        <v>5120</v>
       </c>
       <c r="H6" t="n">
         <v>-5</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>mix.wav</t>
+          <t>ocean_waves.wav</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>conversations_loud.wav</t>
+          <t>seaspray.wav</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -694,10 +694,10 @@
         <v>5120</v>
       </c>
       <c r="H7" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -708,36 +708,40 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Громкие разговоры людей, всплески морских волн, скрежет</t>
+          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>seagulls_screech.wav</t>
+          <t>metal_machines.wav</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.36</v>
+        <v>19.48</v>
       </c>
       <c r="D8" t="n">
-        <v>5.120000000000001</v>
+        <v>6.080000000000002</v>
       </c>
       <c r="E8" t="n">
-        <v>19.48</v>
+        <v>25.56</v>
       </c>
       <c r="F8" t="n">
-        <v>14360</v>
+        <v>19480</v>
       </c>
       <c r="G8" t="n">
-        <v>5120</v>
+        <v>6080</v>
       </c>
       <c r="H8" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>seagulls.wav</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -747,7 +751,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>metal_mechanisms.wav</t>
+          <t>footsteps.wav</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -766,140 +770,148 @@
         <v>6080</v>
       </c>
       <c r="H9" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
+          <t xml:space="preserve"> ветра, скрип досок и многих-многих других.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>seagulls.wav</t>
+          <t>wind_scratching_planks.wav</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.48</v>
+        <v>25.56</v>
       </c>
       <c r="D10" t="n">
-        <v>6.080000000000002</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>25.56</v>
+        <v>29.76</v>
       </c>
       <c r="F10" t="n">
-        <v>19480</v>
+        <v>25560</v>
       </c>
       <c r="G10" t="n">
-        <v>6080</v>
+        <v>4199</v>
       </c>
       <c r="H10" t="n">
         <v>-5</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>wind.wav</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
+          <t xml:space="preserve"> Звук от шагов человека, который их нес, тоже изменился.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>steps_changed.wav</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19.48</v>
+        <v>29.84</v>
       </c>
       <c r="D11" t="n">
-        <v>6.080000000000002</v>
+        <v>6.120000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>25.56</v>
+        <v>35.96</v>
       </c>
       <c r="F11" t="n">
-        <v>19480</v>
+        <v>29840</v>
       </c>
       <c r="G11" t="n">
-        <v>6080</v>
+        <v>6120</v>
       </c>
       <c r="H11" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> железных механизмов, крики чайкаек, топот, ног, свист</t>
+          <t xml:space="preserve"> Сначала они были почти не слышные, чуть-чуть шаркающие.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wind_whistle.wav</t>
+          <t>whispers.wav</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.48</v>
+        <v>35.96</v>
       </c>
       <c r="D12" t="n">
-        <v>6.080000000000002</v>
+        <v>5.32</v>
       </c>
       <c r="E12" t="n">
-        <v>25.56</v>
+        <v>41.28</v>
       </c>
       <c r="F12" t="n">
-        <v>19480</v>
+        <v>35960</v>
       </c>
       <c r="G12" t="n">
-        <v>6080</v>
+        <v>5320</v>
       </c>
       <c r="H12" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ветра, скрип досок и многих-многих других.</t>
+          <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>wind_and_wooden_creaks.wav</t>
+          <t>footsteps.wav</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.56</v>
+        <v>41.28</v>
       </c>
       <c r="D13" t="n">
-        <v>4.199999999999999</v>
+        <v>5.640000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>29.76</v>
+        <v>46.92</v>
       </c>
       <c r="F13" t="n">
-        <v>25560</v>
+        <v>41280</v>
       </c>
       <c r="G13" t="n">
-        <v>4199</v>
+        <v>5640</v>
       </c>
       <c r="H13" t="n">
         <v>-5</v>
@@ -907,109 +919,105 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>wind.wav</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Звук от шагов человека, который их нес, тоже изменился.</t>
+          <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>step_changed.wav</t>
+          <t>name.wav</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29.84</v>
+        <v>41.28</v>
       </c>
       <c r="D14" t="n">
-        <v>6.120000000000001</v>
+        <v>5.640000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>35.96</v>
+        <v>46.92</v>
       </c>
       <c r="F14" t="n">
-        <v>29840</v>
+        <v>41280</v>
       </c>
       <c r="G14" t="n">
-        <v>6120</v>
+        <v>5640</v>
       </c>
       <c r="H14" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>conversations.wav</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Сначала они были почти не слышные, чуть-чуть шаркающие.</t>
+          <t xml:space="preserve"> стали очень громкие, так еще и каждый шаг сопровождался</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>whispers.wav</t>
+          <t>loud_steps.wav</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35.96</v>
+        <v>46.92</v>
       </c>
       <c r="D15" t="n">
-        <v>5.32</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>41.28</v>
+        <v>52.02</v>
       </c>
       <c r="F15" t="n">
-        <v>35960</v>
+        <v>46920</v>
       </c>
       <c r="G15" t="n">
-        <v>5320</v>
+        <v>5100</v>
       </c>
       <c r="H15" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ocean_waves.wav</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
+          <t xml:space="preserve"> неприятным железным эхом.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>footsteps.wav</t>
+          <t>metal_echo.wav</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>41.28</v>
+        <v>52.02</v>
       </c>
       <c r="D16" t="n">
-        <v>5.640000000000001</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>46.92</v>
+        <v>54.92</v>
       </c>
       <c r="F16" t="n">
-        <v>41280</v>
+        <v>52020</v>
       </c>
       <c r="G16" t="n">
-        <v>5640</v>
+        <v>2899</v>
       </c>
       <c r="H16" t="n">
         <v>-5</v>
@@ -1022,210 +1030,210 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ви, Дима, он шел по земле, а теперь мало того, что</t>
+          <t xml:space="preserve"> Ящик поставили, и шаги начали отдаляться.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>whisper.wav</t>
+          <t>box_placed.wav</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>41.28</v>
+        <v>54.92</v>
       </c>
       <c r="D17" t="n">
-        <v>5.640000000000001</v>
+        <v>4.159999999999997</v>
       </c>
       <c r="E17" t="n">
-        <v>46.92</v>
+        <v>59.08</v>
       </c>
       <c r="F17" t="n">
-        <v>41280</v>
+        <v>54920</v>
       </c>
       <c r="G17" t="n">
-        <v>5640</v>
+        <v>4159</v>
       </c>
       <c r="H17" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>wind.wav</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> стали очень громкие, так еще и каждый шаг сопровождался</t>
+          <t xml:space="preserve"> Ящик поставили, и шаги начали отдаляться.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>loud_steps.wav</t>
+          <t>footsteps.wav</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>46.92</v>
+        <v>54.92</v>
       </c>
       <c r="D18" t="n">
-        <v>5.100000000000001</v>
+        <v>4.159999999999997</v>
       </c>
       <c r="E18" t="n">
-        <v>52.02</v>
+        <v>59.08</v>
       </c>
       <c r="F18" t="n">
-        <v>46920</v>
+        <v>54920</v>
       </c>
       <c r="G18" t="n">
-        <v>5100</v>
+        <v>4159</v>
       </c>
       <c r="H18" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> неприятным железным эхом.</t>
+          <t xml:space="preserve"> Пока совсем не стихли.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>metal_echo.wav</t>
+          <t>ambience_silence.wav</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>52.02</v>
+        <v>59.12</v>
       </c>
       <c r="D19" t="n">
-        <v>2.899999999999999</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>54.92</v>
+        <v>61.12</v>
       </c>
       <c r="F19" t="n">
-        <v>52020</v>
+        <v>59120</v>
       </c>
       <c r="G19" t="n">
-        <v>2899</v>
+        <v>2000</v>
       </c>
       <c r="H19" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ambience_silence.wav</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ящик поставили, и шаги начали отдаляться.</t>
+          <t xml:space="preserve"> Пока совсем не стихли.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>footsteps_fading.wav</t>
+          <t>breath.wav</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>54.92</v>
+        <v>59.12</v>
       </c>
       <c r="D20" t="n">
-        <v>4.159999999999997</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>59.08</v>
+        <v>61.12</v>
       </c>
       <c r="F20" t="n">
-        <v>54920</v>
+        <v>59120</v>
       </c>
       <c r="G20" t="n">
-        <v>4159</v>
+        <v>2000</v>
       </c>
       <c r="H20" t="n">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ящик поставили, и шаги начали отдаляться.</t>
+          <t xml:space="preserve"> Больше к ним никто не подходил.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>box_placed.wav</t>
+          <t>isolation_silence.wav</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>54.92</v>
+        <v>61.12</v>
       </c>
       <c r="D21" t="n">
-        <v>4.159999999999997</v>
+        <v>3.080000000000005</v>
       </c>
       <c r="E21" t="n">
-        <v>59.08</v>
+        <v>64.2</v>
       </c>
       <c r="F21" t="n">
-        <v>54920</v>
+        <v>61120</v>
       </c>
       <c r="G21" t="n">
-        <v>4159</v>
+        <v>3080</v>
       </c>
       <c r="H21" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>creaking_isolation.wav</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Пока совсем не стихли.</t>
+          <t xml:space="preserve"> Джо, подождав еще несколько минут, решил открыть глаза.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ambience_quiet.wav</t>
+          <t>eyes_open.wav</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>59.12</v>
+        <v>69.48</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>5.599999999999994</v>
       </c>
       <c r="E22" t="n">
-        <v>61.12</v>
+        <v>75.08</v>
       </c>
       <c r="F22" t="n">
-        <v>59120</v>
+        <v>69480</v>
       </c>
       <c r="G22" t="n">
-        <v>2000</v>
+        <v>5599</v>
       </c>
       <c r="H22" t="n">
         <v>-5</v>
@@ -1234,158 +1242,6 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>silence.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Пока совсем не стихли.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>wind.wav</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>59.12</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>61.12</v>
-      </c>
-      <c r="F23" t="n">
-        <v>59120</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>ambience_quiet.wav</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Больше к ним никто не подходил.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>creaking_isolation.wav</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>61.12</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.080000000000005</v>
-      </c>
-      <c r="E24" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>61120</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3080</v>
-      </c>
-      <c r="H24" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> И, судя по звукам, рядом ничего не происходило.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ambient_silence.wav</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>64.2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>5.280000000000001</v>
-      </c>
-      <c r="E25" t="n">
-        <v>69.48</v>
-      </c>
-      <c r="F25" t="n">
-        <v>64200</v>
-      </c>
-      <c r="G25" t="n">
-        <v>5280</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>none</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Джо, подождав еще несколько минут, решил открыть глаза.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>opening_eyes.wav</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>69.48</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5.599999999999994</v>
-      </c>
-      <c r="E26" t="n">
-        <v>75.08</v>
-      </c>
-      <c r="F26" t="n">
-        <v>69480</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5599</v>
-      </c>
-      <c r="H26" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
         <is>
           <t>none</t>
         </is>
